--- a/posesiones/1479708.xlsx
+++ b/posesiones/1479708.xlsx
@@ -1940,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>29</v>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>17</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>18</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>21</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>10</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>8</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>13</v>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>14</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>8</v>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>20</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30">
         <v>28</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R32">
         <v>5</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R34">
         <v>21</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>23</v>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3740,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>3</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>13</v>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>16</v>
@@ -3946,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R43">
         <v>18</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>8</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R49">
         <v>23</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R55">
         <v>26</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R61">
         <v>6</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R62">
         <v>13</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R67">
         <v>14</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>18</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R74">
         <v>5</v>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R77">
         <v>13</v>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R81">
         <v>18</v>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5954,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R84">
         <v>12</v>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R85">
         <v>15</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6154,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R88">
         <v>23</v>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R89">
         <v>15</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6307,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R91">
         <v>16</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R93">
         <v>6</v>
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6748,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R100">
         <v>13</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6948,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R104">
         <v>16</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7330,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R112">
         <v>24</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7571,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R117">
         <v>12</v>
@@ -7627,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R118">
         <v>0</v>
@@ -7671,10 +7671,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8091,10 +8091,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8144,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R129">
         <v>21</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8297,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R132">
         <v>8</v>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8397,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R134">
         <v>19</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R136">
         <v>7</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8603,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R138">
         <v>28</v>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R139">
         <v>8</v>
@@ -8706,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8806,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R142">
         <v>17</v>
@@ -8856,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9000,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R146">
         <v>24</v>
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9103,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R148">
         <v>6</v>
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R150">
         <v>20</v>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9309,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R152">
         <v>8</v>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9456,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R155">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R160">
         <v>14</v>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9794,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9938,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R165">
         <v>26</v>
@@ -9991,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R166">
         <v>11</v>
@@ -10044,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R167">
         <v>18</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R169">
         <v>14</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10526,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R177">
         <v>35</v>
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10673,7 +10673,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R180">
         <v>16</v>
@@ -10723,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11105,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R190">
         <v>30</v>
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11249,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11393,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R195">
         <v>15</v>
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11722,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11819,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R204">
         <v>6</v>
@@ -11869,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11969,7 +11969,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R207">
         <v>28</v>
@@ -12022,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R208">
         <v>12</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12119,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R212">
         <v>1</v>
@@ -12269,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R213">
         <v>6</v>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12372,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R215">
         <v>17</v>
@@ -12422,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12469,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12519,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R218">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12619,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12666,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12766,7 +12766,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R223">
         <v>8</v>
@@ -12819,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R224">
         <v>0</v>
@@ -12872,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R225">
         <v>18</v>
@@ -12925,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12975,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R227">
         <v>10</v>
@@ -13025,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13075,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R229">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13216,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13263,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13404,7 +13404,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13451,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13548,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R239">
         <v>27</v>
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13651,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R241">
         <v>20</v>
@@ -13701,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13801,7 +13801,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R244">
         <v>6</v>
@@ -13851,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13898,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13951,7 +13951,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R247">
         <v>16</v>
@@ -14001,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14048,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14148,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R251">
         <v>22</v>
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14289,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14336,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14386,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14433,7 +14433,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14574,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14668,7 +14668,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R264">
         <v>26</v>
@@ -14818,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R266">
         <v>15</v>
@@ -14921,7 +14921,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R267">
         <v>7</v>
@@ -14965,10 +14965,10 @@
         <v>1</v>
       </c>
       <c r="P268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q268">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15015,7 +15015,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15062,7 +15062,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15109,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15156,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15250,7 +15250,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15344,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15385,10 +15385,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q277">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15435,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15485,7 +15485,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15535,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R280">
         <v>25</v>
@@ -15585,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15632,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15682,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R283">
         <v>8</v>
@@ -15732,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15779,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15829,7 +15829,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R286">
         <v>0</v>
@@ -15879,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15929,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15979,7 +15979,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R289">
         <v>23</v>
@@ -16032,7 +16032,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R290">
         <v>14</v>
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16135,7 +16135,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R292">
         <v>20</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16238,7 +16238,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R294">
         <v>14</v>
@@ -16291,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R295">
         <v>16</v>
@@ -16344,7 +16344,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R296">
         <v>12</v>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16444,7 +16444,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R298">
         <v>5</v>
@@ -16497,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16544,7 +16544,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16591,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16638,7 +16638,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16688,7 +16688,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16738,7 +16738,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R304">
         <v>20</v>
@@ -16791,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16841,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R306">
         <v>4</v>
@@ -16891,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16988,7 +16988,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R309">
         <v>9</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17091,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R311">
         <v>10</v>
@@ -17141,7 +17141,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17188,7 +17188,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17238,7 +17238,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R314">
         <v>13</v>
@@ -17288,7 +17288,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17338,7 +17338,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R316">
         <v>12</v>
@@ -17388,7 +17388,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17435,7 +17435,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17482,7 +17482,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17529,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17579,7 +17579,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R321">
         <v>41</v>
@@ -17632,7 +17632,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17682,7 +17682,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R323">
         <v>4</v>
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17879,7 +17879,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R327">
         <v>12</v>
@@ -17932,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R328">
         <v>20</v>
@@ -17982,7 +17982,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18032,7 +18032,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18082,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R331">
         <v>23</v>
@@ -18135,7 +18135,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18185,7 +18185,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R333">
         <v>3</v>
@@ -18235,7 +18235,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18279,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18329,7 +18329,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R336">
         <v>48</v>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18432,7 +18432,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R338">
         <v>9</v>
@@ -18485,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18535,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R340">
         <v>14</v>
@@ -18588,7 +18588,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18638,7 +18638,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R342">
         <v>8</v>
@@ -18688,7 +18688,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18735,7 +18735,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18782,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18829,7 +18829,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18876,7 +18876,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18926,7 +18926,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R348">
         <v>22</v>
@@ -18976,7 +18976,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19026,7 +19026,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R350">
         <v>8</v>
@@ -19079,7 +19079,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R351">
         <v>14</v>
@@ -19129,7 +19129,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19179,7 +19179,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R353">
         <v>14</v>
@@ -19229,7 +19229,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19323,7 +19323,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19370,7 +19370,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19467,7 +19467,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R359">
         <v>20</v>
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19570,7 +19570,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R361">
         <v>15</v>
@@ -19620,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19670,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R363">
         <v>13</v>
@@ -19723,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19773,7 +19773,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R365">
         <v>9</v>
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19870,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19917,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19967,7 +19967,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R369">
         <v>12</v>
@@ -20020,7 +20020,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R370">
         <v>17</v>
@@ -20070,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20120,7 +20120,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R372">
         <v>14</v>
@@ -20173,7 +20173,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R373">
         <v>19</v>
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20276,7 +20276,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R375">
         <v>8</v>
@@ -20326,7 +20326,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20426,7 +20426,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R378">
         <v>7</v>
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20529,7 +20529,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R380">
         <v>14</v>
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20632,7 +20632,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R382">
         <v>5</v>
@@ -20676,10 +20676,10 @@
         <v>1</v>
       </c>
       <c r="P383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20779,7 +20779,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R385">
         <v>-600</v>
@@ -20832,7 +20832,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="R386">
         <v>0</v>
@@ -20876,10 +20876,10 @@
         <v>1</v>
       </c>
       <c r="P387" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q387">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20929,7 +20929,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R388">
         <v>16</v>
@@ -20979,7 +20979,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21026,7 +21026,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R392">
         <v>28</v>
@@ -21176,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21226,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21273,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21320,7 +21320,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21370,7 +21370,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R397">
         <v>27</v>
@@ -21423,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21520,7 +21520,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21570,7 +21570,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R401">
         <v>15</v>
@@ -21623,7 +21623,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R402">
         <v>15</v>
@@ -21673,7 +21673,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21723,7 +21723,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R404">
         <v>5</v>
@@ -21773,7 +21773,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21817,7 +21817,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21961,7 +21961,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R409">
         <v>11</v>
@@ -22014,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22061,7 +22061,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22111,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22158,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22258,7 +22258,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R415">
         <v>23</v>
@@ -22311,7 +22311,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R416">
         <v>5</v>
@@ -22364,7 +22364,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R417">
         <v>11</v>
@@ -22414,7 +22414,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22464,7 +22464,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R419">
         <v>16</v>
@@ -22514,7 +22514,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22564,7 +22564,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R421">
         <v>26</v>
@@ -22617,7 +22617,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22667,7 +22667,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R423">
         <v>15</v>
@@ -22720,7 +22720,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R424">
         <v>16</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22823,7 +22823,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R426">
         <v>20</v>
@@ -22876,7 +22876,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22920,7 +22920,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22967,7 +22967,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -23014,7 +23014,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23064,7 +23064,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R431">
         <v>44</v>
@@ -23114,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23164,7 +23164,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R433">
         <v>23</v>
@@ -23214,7 +23214,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23311,7 +23311,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R436">
         <v>0</v>
@@ -23364,7 +23364,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R437">
         <v>18</v>
@@ -23414,7 +23414,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23511,7 +23511,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23561,7 +23561,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R441">
         <v>14</v>
@@ -23611,7 +23611,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23708,7 +23708,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R444">
         <v>0</v>
@@ -23758,7 +23758,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23805,7 +23805,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23949,7 +23949,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R449">
         <v>18</v>
@@ -23999,7 +23999,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24046,7 +24046,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24140,7 +24140,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24190,7 +24190,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R454">
         <v>0</v>
@@ -24240,7 +24240,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24337,7 +24337,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R457">
         <v>12</v>
@@ -24390,7 +24390,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24440,7 +24440,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R459">
         <v>11</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24637,7 +24637,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24687,7 +24687,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R464">
         <v>25</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24790,7 +24790,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R466">
         <v>5</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24887,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24981,7 +24981,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25028,7 +25028,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25125,7 +25125,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R473">
         <v>20</v>
@@ -25178,7 +25178,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25272,7 +25272,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25319,7 +25319,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25369,7 +25369,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R478">
         <v>6</v>
@@ -25422,7 +25422,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R479">
         <v>17</v>
@@ -25475,7 +25475,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R480">
         <v>7</v>
@@ -25528,7 +25528,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25578,7 +25578,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R482">
         <v>10</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25819,7 +25819,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R488">
         <v>4</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25966,7 +25966,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R490">
         <v>24</v>
@@ -26016,7 +26016,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26060,7 +26060,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26110,7 +26110,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R493">
         <v>4</v>
@@ -26163,7 +26163,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26213,7 +26213,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R495">
         <v>5</v>
@@ -26263,7 +26263,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26310,7 +26310,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26360,7 +26360,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26410,7 +26410,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R499">
         <v>8</v>
@@ -26460,7 +26460,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26510,7 +26510,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R501">
         <v>4</v>
@@ -26560,7 +26560,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26607,7 +26607,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26657,7 +26657,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26754,7 +26754,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26804,7 +26804,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R507">
         <v>23</v>
@@ -26854,7 +26854,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26904,7 +26904,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R509">
         <v>24</v>
@@ -26954,7 +26954,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27145,7 +27145,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R514">
         <v>5</v>
@@ -27189,10 +27189,10 @@
         <v>1</v>
       </c>
       <c r="P515" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q515">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27233,7 +27233,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
